--- a/Win32/Binaries/Table/towertype.xlsx
+++ b/Win32/Binaries/Table/towertype.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
   <si>
     <t>int</t>
   </si>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hprecover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>operatetlimittime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,7 +74,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复生命</t>
+    <t>roulette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roulettemaxtimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scorerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡花费元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始携带积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓30层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔100层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔60层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startscore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mopupcost</t>
+  </si>
+  <si>
+    <t>mopupaward1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mopupaward2</t>
+  </si>
+  <si>
+    <t>mopupawardrate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mopupawardrate2</t>
+  </si>
+  <si>
+    <t>mopupaward3</t>
+  </si>
+  <si>
+    <t>mopupawardrate3</t>
+  </si>
+  <si>
+    <t>mopupaward4</t>
+  </si>
+  <si>
+    <t>mopupawardrate4</t>
+  </si>
+  <si>
+    <t>扫荡直接给奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里就填1，体力=时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,131 +171,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roulette</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮盘最大次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roulettemaxtimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>积分系数：先拿出N%%作为下次起始积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scorerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡花费元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始携带积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓30层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔100层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔60层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startscore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mopupcost</t>
-  </si>
-  <si>
-    <t>rouletteid1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rouletteid2</t>
-  </si>
-  <si>
-    <t>rouletteid3</t>
-  </si>
-  <si>
-    <t>rouletteid4</t>
-  </si>
-  <si>
-    <t>rouletteid5</t>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>awardshow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12_1006_1;12_2001_1;11_1001_10;6_6_10;6_6_20;6_6_30;1_1_30;1_2_30000</t>
-  </si>
-  <si>
-    <t>mopupaward1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mopupaward2</t>
-  </si>
-  <si>
-    <t>mopupawardrate1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mopupawardrate2</t>
-  </si>
-  <si>
-    <t>mopupaward3</t>
-  </si>
-  <si>
-    <t>mopupawardrate3</t>
-  </si>
-  <si>
-    <t>mopupaward4</t>
-  </si>
-  <si>
-    <t>mopupawardrate4</t>
-  </si>
-  <si>
-    <t>扫荡直接给奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里就填1，体力=时间</t>
+    <t>exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后剩余积分兑换铜钱的汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rouletteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rouletteid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selecttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selecttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择倒计时，当出现让玩家进行选择的事件时，进行倒计时，倒计时结束如玩家没进行选择，则按照默认选择处理（单位为秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthrecover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活时，恢复体力（占上限百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活倒计时，当玩家弹出复活面板时的倒计时时间（单位为秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selecteventtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先通过轮盘id，找到掉落组；再根据掉落组的权重，随机出到底用哪条掉落数据。当确定了这条掉落数据后，之后的几次扔飞镖（roll奖励）都从这条数据中获取奖励。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,20 +258,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,10 +285,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -573,38 +597,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
@@ -666,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
@@ -678,22 +702,16 @@
         <v>0</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,76 +731,70 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -790,19 +802,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -817,63 +829,69 @@
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>200</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
+      </c>
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>118001</v>
+      <c r="Q3">
+        <v>119001</v>
+      </c>
+      <c r="R3">
+        <v>1500</v>
       </c>
       <c r="S3">
-        <v>10000</v>
+        <v>119002</v>
       </c>
       <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>43</v>
+        <v>3500</v>
+      </c>
+      <c r="U3">
+        <v>119003</v>
       </c>
       <c r="V3">
-        <v>119001</v>
+        <v>5000</v>
       </c>
       <c r="W3">
-        <v>2000</v>
+        <v>119004</v>
       </c>
       <c r="X3">
-        <v>119002</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>2000</v>
-      </c>
-      <c r="Z3">
-        <v>119003</v>
-      </c>
-      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1">
         <v>1000</v>
       </c>
-      <c r="AB3">
-        <v>119004</v>
-      </c>
-      <c r="AC3">
-        <v>5000</v>
+      <c r="AA3" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="G4">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -888,72 +906,72 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>128001</v>
+        <v>1000</v>
       </c>
       <c r="O4">
-        <v>128002</v>
+        <v>1000</v>
       </c>
       <c r="P4">
-        <v>128003</v>
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>129001</v>
+      </c>
+      <c r="R4">
+        <v>1500</v>
       </c>
       <c r="S4">
-        <v>50000</v>
+        <v>129002</v>
       </c>
       <c r="T4">
-        <v>10</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>43</v>
+        <v>3500</v>
+      </c>
+      <c r="U4">
+        <v>129003</v>
       </c>
       <c r="V4">
-        <v>129001</v>
+        <v>5000</v>
       </c>
       <c r="W4">
-        <v>2000</v>
+        <v>129004</v>
       </c>
       <c r="X4">
-        <v>129002</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2000</v>
-      </c>
-      <c r="Z4">
-        <v>129003</v>
-      </c>
-      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="1">
         <v>1000</v>
       </c>
-      <c r="AB4">
-        <v>129004</v>
-      </c>
-      <c r="AC4">
-        <v>5000</v>
+      <c r="AA4" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="H5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -965,58 +983,52 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>20000</v>
+      </c>
+      <c r="O5">
+        <v>1500</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>139001</v>
+      </c>
+      <c r="R5">
+        <v>1500</v>
+      </c>
+      <c r="S5">
+        <v>139002</v>
+      </c>
+      <c r="T5">
+        <v>3500</v>
+      </c>
+      <c r="U5">
+        <v>139003</v>
+      </c>
+      <c r="V5">
+        <v>5000</v>
+      </c>
+      <c r="W5">
+        <v>139004</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>5</v>
       </c>
-      <c r="N5">
-        <v>138001</v>
-      </c>
-      <c r="O5">
-        <v>138002</v>
-      </c>
-      <c r="P5">
-        <v>138003</v>
-      </c>
-      <c r="Q5">
-        <v>138004</v>
-      </c>
-      <c r="R5">
-        <v>138005</v>
-      </c>
-      <c r="S5">
-        <v>100000</v>
-      </c>
-      <c r="T5">
-        <v>15</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5">
-        <v>139001</v>
-      </c>
-      <c r="W5">
-        <v>2000</v>
-      </c>
-      <c r="X5">
-        <v>139002</v>
-      </c>
-      <c r="Y5">
-        <v>2000</v>
-      </c>
-      <c r="Z5">
-        <v>139003</v>
-      </c>
-      <c r="AA5">
+      <c r="Z5" s="1">
         <v>1000</v>
       </c>
-      <c r="AB5">
-        <v>139004</v>
-      </c>
-      <c r="AC5">
-        <v>5000</v>
+      <c r="AA5" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1030,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1040,10 +1052,13 @@
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="16" max="16" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="28" max="28" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1080,9 +1095,7 @@
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
@@ -1123,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1152,70 +1165,68 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
@@ -1226,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -1252,20 +1263,23 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>10000</v>
+      </c>
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>100101</v>
-      </c>
-      <c r="S3">
-        <v>10000</v>
-      </c>
-      <c r="T3">
+      <c r="Q3">
         <v>10</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
@@ -1273,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -1296,37 +1310,34 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4">
-        <v>100201</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>100202</v>
+        <v>50000</v>
       </c>
       <c r="P4">
-        <v>100203</v>
-      </c>
-      <c r="S4">
-        <v>50000</v>
-      </c>
-      <c r="T4">
         <v>10</v>
       </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="54" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1346,86 +1357,88 @@
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5">
-        <v>100301</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>100302</v>
+        <v>100000</v>
       </c>
       <c r="P5">
-        <v>100303</v>
+        <v>15</v>
       </c>
       <c r="Q5">
-        <v>100304</v>
-      </c>
-      <c r="R5">
-        <v>100305</v>
-      </c>
-      <c r="S5">
-        <v>100000</v>
-      </c>
-      <c r="T5">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="81" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
       </c>
       <c r="S9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" t="s">
-        <v>24</v>
+    <row r="10" spans="1:28" ht="27" x14ac:dyDescent="0.15">
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
